--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed3/result_data_RandomForest.xlsx
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.757899999999996</v>
+        <v>5.634499999999997</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.807300000000001</v>
+        <v>5.900099999999997</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.7167</v>
+        <v>4.683999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.7016</v>
+        <v>6.765199999999992</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.095999999999997</v>
+        <v>6.000299999999997</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -950,7 +950,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.716600000000001</v>
+        <v>8.749800000000004</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.195799999999997</v>
+        <v>6.159599999999992</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.754099999999995</v>
+        <v>4.688299999999995</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.9465</v>
+        <v>8.784700000000001</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.443299999999999</v>
+        <v>9.267600000000002</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.855600000000004</v>
+        <v>8.675700000000004</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.375400000000001</v>
+        <v>9.282200000000001</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.916400000000005</v>
+        <v>5.537700000000005</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.4319</v>
+        <v>5.284900000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.9518</v>
+        <v>5.639500000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.693399999999994</v>
+        <v>5.684699999999995</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1860,7 +1860,7 @@
         <v>-20.62</v>
       </c>
       <c r="B102" t="n">
-        <v>7.357699999999999</v>
+        <v>7.870599999999997</v>
       </c>
       <c r="C102" t="n">
         <v>-12.7</v>
